--- a/TASCore_documents/Test/Build 10/TASCore_TEL_v2.0.xlsx
+++ b/TASCore_documents/Test/Build 10/TASCore_TEL_v2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VHAISPFOWLDD\repos\mccf_tascore_documents\Test\TAS_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171B74A5-7D2B-4C4F-8FCC-2EC199B6A3B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A428C3D-680D-4FD7-A95D-613F61FD12A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12220" tabRatio="736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3433" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3435" uniqueCount="168">
   <si>
     <t>Department of Veterans Affairs</t>
   </si>
@@ -538,6 +538,12 @@
   </si>
   <si>
     <t>VAVLGateway_02.00.2_20190508_145400</t>
+  </si>
+  <si>
+    <t>Updated new results/ version #s post SwA</t>
+  </si>
+  <si>
+    <t>TAS.02.00.4_20190502_140102</t>
   </si>
   <si>
     <r>
@@ -634,23 +640,20 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> VAVLGateway_02.00.3_20190516_084015</t>
+      <t xml:space="preserve"> VAVLGateway_02.00.3_20190516_085649</t>
     </r>
   </si>
   <si>
-    <t>May 17, 2019</t>
-  </si>
-  <si>
-    <t>Version 6.0</t>
-  </si>
-  <si>
-    <t>Updated new results/ version #s post SwA</t>
-  </si>
-  <si>
-    <t>TAS.02.00.4_20190502_140102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAVLGateway_02.00.3_20190516_084015 </t>
+    <t>VAVLGateway_02.00.3_20190516_085649</t>
+  </si>
+  <si>
+    <t>May 20, 2019</t>
+  </si>
+  <si>
+    <t>Version 7.0</t>
+  </si>
+  <si>
+    <t>Updated VistALink build #</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1560,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Revision_History3" displayName="Revision_History3" ref="A2:D8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Revision_History3" displayName="Revision_History3" ref="A2:D9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4" headerRowCellStyle="Normal 2">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="3" dataCellStyle="Normal 2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Version" dataDxfId="2" dataCellStyle="Normal 2"/>
@@ -1911,7 +1914,7 @@
     </row>
     <row r="3" spans="1:1" ht="72" customHeight="1">
       <c r="A3" s="31" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="17.5" customHeight="1">
@@ -1949,12 +1952,12 @@
     </row>
     <row r="15" spans="1:1" ht="17" customHeight="1">
       <c r="A15" s="33" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="17" customHeight="1">
       <c r="A16" s="33" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1" thickBot="1">
@@ -1977,10 +1980,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -2017,13 +2020,13 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="35">
-        <v>43602</v>
+        <v>43605</v>
       </c>
       <c r="B3" s="36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>14</v>
@@ -2031,41 +2034,41 @@
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="35">
+        <v>43602</v>
+      </c>
+      <c r="B4" s="36">
+        <v>6</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A5" s="35">
         <v>43599</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B5" s="36">
         <v>5</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C5" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="13">
-        <v>43593</v>
-      </c>
-      <c r="B5" s="14">
-        <v>4</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="38" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="13">
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="B6" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>14</v>
@@ -2073,29 +2076,43 @@
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="13">
+        <v>43592</v>
+      </c>
+      <c r="B7" s="14">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="13">
         <v>43584</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B8" s="14">
         <v>2</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14">
-      <c r="A8" s="17">
+      <c r="D8" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14">
+      <c r="A9" s="17">
         <v>43581</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B9" s="18">
         <v>1</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D9" s="20" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2244,7 +2261,7 @@
         <v>158</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E5" s="40">
         <v>43602</v>
@@ -2405,7 +2422,7 @@
         <v>158</v>
       </c>
       <c r="D12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E12" s="40">
         <v>43602</v>
@@ -2428,7 +2445,7 @@
         <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E13" s="40">
         <v>43602</v>
@@ -2520,7 +2537,7 @@
         <v>158</v>
       </c>
       <c r="D17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E17" s="40">
         <v>43602</v>
@@ -2612,7 +2629,7 @@
         <v>158</v>
       </c>
       <c r="D21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E21" s="40">
         <v>43602</v>
@@ -2704,7 +2721,7 @@
         <v>158</v>
       </c>
       <c r="D25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E25" s="40">
         <v>43602</v>
@@ -2865,7 +2882,7 @@
         <v>158</v>
       </c>
       <c r="D32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E32" s="40">
         <v>43602</v>
@@ -2888,7 +2905,7 @@
         <v>158</v>
       </c>
       <c r="D33" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E33" s="40">
         <v>43602</v>
@@ -3049,7 +3066,7 @@
         <v>158</v>
       </c>
       <c r="D40" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E40" s="40">
         <v>43602</v>
@@ -3072,7 +3089,7 @@
         <v>158</v>
       </c>
       <c r="D41" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E41" s="40">
         <v>43602</v>
@@ -3256,7 +3273,7 @@
         <v>158</v>
       </c>
       <c r="D49" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E49" s="40">
         <v>43602</v>
@@ -3279,7 +3296,7 @@
         <v>158</v>
       </c>
       <c r="D50" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E50" s="40">
         <v>43602</v>
@@ -3371,7 +3388,7 @@
         <v>158</v>
       </c>
       <c r="D54" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E54" s="40">
         <v>43602</v>
@@ -3463,7 +3480,7 @@
         <v>158</v>
       </c>
       <c r="D58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E58" s="40">
         <v>43602</v>
@@ -3555,7 +3572,7 @@
         <v>158</v>
       </c>
       <c r="D62" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E62" s="40">
         <v>43602</v>
@@ -3647,7 +3664,7 @@
         <v>158</v>
       </c>
       <c r="D66" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E66" s="40">
         <v>43602</v>
@@ -3739,7 +3756,7 @@
         <v>158</v>
       </c>
       <c r="D70" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E70" s="40">
         <v>43602</v>
@@ -3831,7 +3848,7 @@
         <v>158</v>
       </c>
       <c r="D74" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E74" s="40">
         <v>43602</v>
@@ -3923,7 +3940,7 @@
         <v>158</v>
       </c>
       <c r="D78" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E78" s="40">
         <v>43602</v>
@@ -4015,7 +4032,7 @@
         <v>158</v>
       </c>
       <c r="D82" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E82" s="40">
         <v>43602</v>
@@ -4107,7 +4124,7 @@
         <v>158</v>
       </c>
       <c r="D86" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E86" s="40">
         <v>43602</v>
@@ -4199,7 +4216,7 @@
         <v>158</v>
       </c>
       <c r="D90" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E90" s="40">
         <v>43602</v>
@@ -4291,7 +4308,7 @@
         <v>158</v>
       </c>
       <c r="D94" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E94" s="40">
         <v>43602</v>
@@ -4383,7 +4400,7 @@
         <v>158</v>
       </c>
       <c r="D98" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E98" s="40">
         <v>43602</v>
@@ -4475,7 +4492,7 @@
         <v>158</v>
       </c>
       <c r="D102" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E102" s="40">
         <v>43602</v>
@@ -4567,7 +4584,7 @@
         <v>158</v>
       </c>
       <c r="D106" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E106" s="40">
         <v>43602</v>
@@ -4659,7 +4676,7 @@
         <v>158</v>
       </c>
       <c r="D110" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E110" s="40">
         <v>43602</v>
@@ -4751,7 +4768,7 @@
         <v>158</v>
       </c>
       <c r="D114" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E114" s="40">
         <v>43602</v>
@@ -4843,7 +4860,7 @@
         <v>158</v>
       </c>
       <c r="D118" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E118" s="40">
         <v>43602</v>
@@ -4935,7 +4952,7 @@
         <v>158</v>
       </c>
       <c r="D122" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E122" s="40">
         <v>43602</v>
@@ -5027,7 +5044,7 @@
         <v>158</v>
       </c>
       <c r="D126" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E126" s="40">
         <v>43602</v>
@@ -5119,7 +5136,7 @@
         <v>158</v>
       </c>
       <c r="D130" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E130" s="40">
         <v>43602</v>
@@ -5211,7 +5228,7 @@
         <v>158</v>
       </c>
       <c r="D134" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E134" s="40">
         <v>43602</v>
@@ -5303,7 +5320,7 @@
         <v>158</v>
       </c>
       <c r="D138" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E138" s="40">
         <v>43602</v>
@@ -5395,7 +5412,7 @@
         <v>158</v>
       </c>
       <c r="D142" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E142" s="40">
         <v>43602</v>
@@ -5487,7 +5504,7 @@
         <v>158</v>
       </c>
       <c r="D146" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E146" s="40">
         <v>43602</v>
@@ -5579,7 +5596,7 @@
         <v>158</v>
       </c>
       <c r="D150" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E150" s="40">
         <v>43602</v>
@@ -5671,7 +5688,7 @@
         <v>158</v>
       </c>
       <c r="D154" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E154" s="40">
         <v>43602</v>
@@ -5763,7 +5780,7 @@
         <v>158</v>
       </c>
       <c r="D158" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E158" s="40">
         <v>43602</v>
@@ -5855,7 +5872,7 @@
         <v>158</v>
       </c>
       <c r="D162" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E162" s="40">
         <v>43602</v>
@@ -6016,7 +6033,7 @@
         <v>158</v>
       </c>
       <c r="D169" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E169" s="40">
         <v>43602</v>
@@ -6039,7 +6056,7 @@
         <v>158</v>
       </c>
       <c r="D170" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E170" s="40">
         <v>43602</v>
@@ -6200,7 +6217,7 @@
         <v>158</v>
       </c>
       <c r="D177" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E177" s="40">
         <v>43602</v>
@@ -6223,7 +6240,7 @@
         <v>158</v>
       </c>
       <c r="D178" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E178" s="40">
         <v>43602</v>
@@ -6384,7 +6401,7 @@
         <v>158</v>
       </c>
       <c r="D185" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E185" s="40">
         <v>43602</v>
@@ -6407,7 +6424,7 @@
         <v>158</v>
       </c>
       <c r="D186" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E186" s="40">
         <v>43602</v>
@@ -6568,7 +6585,7 @@
         <v>158</v>
       </c>
       <c r="D193" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E193" s="40">
         <v>43602</v>
@@ -6591,7 +6608,7 @@
         <v>158</v>
       </c>
       <c r="D194" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E194" s="40">
         <v>43602</v>
@@ -6752,7 +6769,7 @@
         <v>158</v>
       </c>
       <c r="D201" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E201" s="40">
         <v>43602</v>
@@ -6775,7 +6792,7 @@
         <v>158</v>
       </c>
       <c r="D202" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E202" s="40">
         <v>43602</v>
@@ -6867,7 +6884,7 @@
         <v>158</v>
       </c>
       <c r="D206" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E206" s="40">
         <v>43602</v>
@@ -6959,7 +6976,7 @@
         <v>158</v>
       </c>
       <c r="D210" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E210" s="40">
         <v>43602</v>
@@ -7051,7 +7068,7 @@
         <v>158</v>
       </c>
       <c r="D214" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E214" s="40">
         <v>43602</v>
@@ -7143,7 +7160,7 @@
         <v>158</v>
       </c>
       <c r="D218" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E218" s="40">
         <v>43602</v>
@@ -7304,7 +7321,7 @@
         <v>158</v>
       </c>
       <c r="D225" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E225" s="40">
         <v>43602</v>
@@ -7327,7 +7344,7 @@
         <v>158</v>
       </c>
       <c r="D226" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E226" s="40">
         <v>43602</v>
@@ -7488,7 +7505,7 @@
         <v>158</v>
       </c>
       <c r="D233" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E233" s="40">
         <v>43602</v>
@@ -7511,7 +7528,7 @@
         <v>158</v>
       </c>
       <c r="D234" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E234" s="40">
         <v>43602</v>
@@ -7672,7 +7689,7 @@
         <v>158</v>
       </c>
       <c r="D241" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E241" s="40">
         <v>43602</v>
@@ -7695,7 +7712,7 @@
         <v>158</v>
       </c>
       <c r="D242" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E242" s="40">
         <v>43602</v>
@@ -7856,7 +7873,7 @@
         <v>158</v>
       </c>
       <c r="D249" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E249" s="40">
         <v>43602</v>
@@ -7879,7 +7896,7 @@
         <v>158</v>
       </c>
       <c r="D250" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E250" s="40">
         <v>43602</v>
@@ -8040,7 +8057,7 @@
         <v>158</v>
       </c>
       <c r="D257" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E257" s="40">
         <v>43602</v>
@@ -8063,7 +8080,7 @@
         <v>158</v>
       </c>
       <c r="D258" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E258" s="40">
         <v>43602</v>
@@ -8224,7 +8241,7 @@
         <v>158</v>
       </c>
       <c r="D265" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E265" s="40">
         <v>43602</v>
@@ -8247,7 +8264,7 @@
         <v>158</v>
       </c>
       <c r="D266" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E266" s="40">
         <v>43602</v>
@@ -8408,7 +8425,7 @@
         <v>158</v>
       </c>
       <c r="D273" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E273" s="40">
         <v>43602</v>
@@ -8431,7 +8448,7 @@
         <v>158</v>
       </c>
       <c r="D274" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E274" s="40">
         <v>43602</v>
@@ -8523,7 +8540,7 @@
         <v>158</v>
       </c>
       <c r="D278" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E278" s="40">
         <v>43602</v>
@@ -8615,7 +8632,7 @@
         <v>158</v>
       </c>
       <c r="D282" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E282" s="40">
         <v>43602</v>
@@ -8707,7 +8724,7 @@
         <v>158</v>
       </c>
       <c r="D286" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E286" s="40">
         <v>43602</v>
@@ -8799,7 +8816,7 @@
         <v>158</v>
       </c>
       <c r="D290" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E290" s="40">
         <v>43602</v>
@@ -8891,7 +8908,7 @@
         <v>158</v>
       </c>
       <c r="D294" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E294" s="40">
         <v>43602</v>
@@ -8983,7 +9000,7 @@
         <v>158</v>
       </c>
       <c r="D298" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E298" s="40">
         <v>43602</v>
@@ -9075,7 +9092,7 @@
         <v>158</v>
       </c>
       <c r="D302" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E302" s="40">
         <v>43602</v>
@@ -9167,7 +9184,7 @@
         <v>158</v>
       </c>
       <c r="D306" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E306" s="40">
         <v>43602</v>
@@ -9259,7 +9276,7 @@
         <v>158</v>
       </c>
       <c r="D310" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E310" s="40">
         <v>43602</v>
@@ -9351,7 +9368,7 @@
         <v>158</v>
       </c>
       <c r="D314" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E314" s="40">
         <v>43602</v>
@@ -9443,7 +9460,7 @@
         <v>158</v>
       </c>
       <c r="D318" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E318" s="40">
         <v>43602</v>
@@ -9535,7 +9552,7 @@
         <v>158</v>
       </c>
       <c r="D322" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E322" s="40">
         <v>43602</v>
@@ -9627,7 +9644,7 @@
         <v>158</v>
       </c>
       <c r="D326" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E326" s="40">
         <v>43602</v>
@@ -9719,7 +9736,7 @@
         <v>158</v>
       </c>
       <c r="D330" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E330" s="40">
         <v>43602</v>
@@ -9811,7 +9828,7 @@
         <v>158</v>
       </c>
       <c r="D334" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E334" s="40">
         <v>43602</v>
@@ -9903,7 +9920,7 @@
         <v>158</v>
       </c>
       <c r="D338" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E338" s="40">
         <v>43602</v>
@@ -9995,7 +10012,7 @@
         <v>158</v>
       </c>
       <c r="D342" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E342" s="40">
         <v>43602</v>
@@ -10087,7 +10104,7 @@
         <v>158</v>
       </c>
       <c r="D346" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E346" s="40">
         <v>43602</v>
@@ -10248,7 +10265,7 @@
         <v>158</v>
       </c>
       <c r="D353" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E353" s="40">
         <v>43602</v>
@@ -10271,7 +10288,7 @@
         <v>158</v>
       </c>
       <c r="D354" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E354" s="40">
         <v>43602</v>
@@ -10363,7 +10380,7 @@
         <v>158</v>
       </c>
       <c r="D358" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E358" s="40">
         <v>43602</v>
@@ -10455,7 +10472,7 @@
         <v>158</v>
       </c>
       <c r="D362" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E362" s="40">
         <v>43602</v>
@@ -10547,7 +10564,7 @@
         <v>158</v>
       </c>
       <c r="D366" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E366" s="40">
         <v>43602</v>
@@ -10639,7 +10656,7 @@
         <v>158</v>
       </c>
       <c r="D370" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E370" s="40">
         <v>43602</v>
@@ -10731,7 +10748,7 @@
         <v>158</v>
       </c>
       <c r="D374" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E374" s="40">
         <v>43602</v>
@@ -10823,7 +10840,7 @@
         <v>158</v>
       </c>
       <c r="D378" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E378" s="40">
         <v>43602</v>
@@ -10915,7 +10932,7 @@
         <v>158</v>
       </c>
       <c r="D382" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E382" s="40">
         <v>43602</v>
@@ -11007,7 +11024,7 @@
         <v>158</v>
       </c>
       <c r="D386" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E386" s="40">
         <v>43602</v>
@@ -11099,7 +11116,7 @@
         <v>158</v>
       </c>
       <c r="D390" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E390" s="40">
         <v>43602</v>
@@ -11191,7 +11208,7 @@
         <v>158</v>
       </c>
       <c r="D394" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E394" s="40">
         <v>43602</v>
@@ -11283,7 +11300,7 @@
         <v>158</v>
       </c>
       <c r="D398" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E398" s="40">
         <v>43602</v>
@@ -11375,7 +11392,7 @@
         <v>158</v>
       </c>
       <c r="D402" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E402" s="40">
         <v>43602</v>
@@ -11467,7 +11484,7 @@
         <v>158</v>
       </c>
       <c r="D406" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E406" s="40">
         <v>43602</v>
@@ -11559,7 +11576,7 @@
         <v>158</v>
       </c>
       <c r="D410" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E410" s="40">
         <v>43602</v>
@@ -11651,7 +11668,7 @@
         <v>158</v>
       </c>
       <c r="D414" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E414" s="40">
         <v>43602</v>
@@ -11743,7 +11760,7 @@
         <v>158</v>
       </c>
       <c r="D418" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E418" s="40">
         <v>43602</v>
@@ -11835,7 +11852,7 @@
         <v>158</v>
       </c>
       <c r="D422" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E422" s="40">
         <v>43602</v>
@@ -11927,7 +11944,7 @@
         <v>158</v>
       </c>
       <c r="D426" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E426" s="40">
         <v>43602</v>
@@ -12019,7 +12036,7 @@
         <v>158</v>
       </c>
       <c r="D430" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E430" s="40">
         <v>43602</v>
@@ -12111,7 +12128,7 @@
         <v>158</v>
       </c>
       <c r="D434" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E434" s="40">
         <v>43602</v>
@@ -12203,7 +12220,7 @@
         <v>158</v>
       </c>
       <c r="D438" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E438" s="40">
         <v>43602</v>
@@ -12295,7 +12312,7 @@
         <v>158</v>
       </c>
       <c r="D442" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E442" s="40">
         <v>43602</v>
@@ -12387,7 +12404,7 @@
         <v>158</v>
       </c>
       <c r="D446" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E446" s="40">
         <v>43602</v>
@@ -12479,7 +12496,7 @@
         <v>158</v>
       </c>
       <c r="D450" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E450" s="40">
         <v>43602</v>
@@ -12571,7 +12588,7 @@
         <v>158</v>
       </c>
       <c r="D454" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E454" s="40">
         <v>43602</v>
@@ -12663,7 +12680,7 @@
         <v>158</v>
       </c>
       <c r="D458" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E458" s="40">
         <v>43602</v>
@@ -12755,7 +12772,7 @@
         <v>158</v>
       </c>
       <c r="D462" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E462" s="40">
         <v>43602</v>
@@ -12847,7 +12864,7 @@
         <v>158</v>
       </c>
       <c r="D466" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E466" s="40">
         <v>43602</v>
@@ -12939,7 +12956,7 @@
         <v>158</v>
       </c>
       <c r="D470" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E470" s="40">
         <v>43602</v>
@@ -13031,7 +13048,7 @@
         <v>158</v>
       </c>
       <c r="D474" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E474" s="40">
         <v>43602</v>
@@ -13123,7 +13140,7 @@
         <v>158</v>
       </c>
       <c r="D478" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E478" s="40">
         <v>43602</v>
@@ -13215,7 +13232,7 @@
         <v>158</v>
       </c>
       <c r="D482" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E482" s="40">
         <v>43602</v>
@@ -13307,7 +13324,7 @@
         <v>158</v>
       </c>
       <c r="D486" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E486" s="40">
         <v>43602</v>
@@ -13399,7 +13416,7 @@
         <v>158</v>
       </c>
       <c r="D490" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E490" s="40">
         <v>43602</v>
@@ -13491,7 +13508,7 @@
         <v>158</v>
       </c>
       <c r="D494" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E494" s="40">
         <v>43602</v>
@@ -13583,7 +13600,7 @@
         <v>158</v>
       </c>
       <c r="D498" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E498" s="40">
         <v>43602</v>
@@ -13675,7 +13692,7 @@
         <v>158</v>
       </c>
       <c r="D502" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E502" s="40">
         <v>43602</v>
@@ -13790,7 +13807,7 @@
         <v>158</v>
       </c>
       <c r="D507" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E507" s="40">
         <v>43602</v>
@@ -13882,7 +13899,7 @@
         <v>158</v>
       </c>
       <c r="D511" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E511" s="40">
         <v>43602</v>
@@ -13974,7 +13991,7 @@
         <v>158</v>
       </c>
       <c r="D515" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E515" s="40">
         <v>43602</v>
@@ -14066,7 +14083,7 @@
         <v>158</v>
       </c>
       <c r="D519" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E519" s="40">
         <v>43602</v>
@@ -14158,7 +14175,7 @@
         <v>158</v>
       </c>
       <c r="D523" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E523" s="40">
         <v>43602</v>
@@ -14250,7 +14267,7 @@
         <v>158</v>
       </c>
       <c r="D527" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E527" s="40">
         <v>43602</v>
@@ -14342,7 +14359,7 @@
         <v>158</v>
       </c>
       <c r="D531" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E531" s="40">
         <v>43602</v>
@@ -14434,7 +14451,7 @@
         <v>158</v>
       </c>
       <c r="D535" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E535" s="40">
         <v>43602</v>
@@ -14526,7 +14543,7 @@
         <v>158</v>
       </c>
       <c r="D539" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E539" s="40">
         <v>43602</v>
@@ -14618,7 +14635,7 @@
         <v>158</v>
       </c>
       <c r="D543" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E543" s="40">
         <v>43602</v>
@@ -14710,7 +14727,7 @@
         <v>158</v>
       </c>
       <c r="D547" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E547" s="40">
         <v>43602</v>
@@ -14828,7 +14845,7 @@
         <v>158</v>
       </c>
       <c r="D552" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E552" s="40">
         <v>43602</v>
@@ -15164,7 +15181,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -15289,7 +15306,7 @@
         <v>158</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E5" s="27">
         <v>43602</v>
@@ -15304,5 +15321,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>